--- a/medicine/Enfance/Julia_Wauters/Julia_Wauters.xlsx
+++ b/medicine/Enfance/Julia_Wauters/Julia_Wauters.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Julia Wauters, née en 1982 en Haute-Normandie, est une illustratrice et sérigraphe française. Elle vit et travaille à Nantes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Julia Wauters, née en 1982 en Haute-Normandie, est une illustratrice et sérigraphe française. Elle vit et travaille à Nantes.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après des cours d'art textile à l'École Duperré à Paris, Julia Wauters est diplômée de l’atelier d’illustration des Arts décoratifs de Strasbourg, où elle a participé à la création du collectif Troglodyte[2]. Elle est à l'origine avec le dessinateur Glen Chapron du fanzine Écarquillettes[3].
-Peu après son diplôme, elle rencontre Sophie Giraud, éditrice aux Éditions Albin Michel et Naïve, et fondatrice en 2008 des éditions Hélium[2]. Elle y illustre un de ses premiers albums, Ma grande sœur m'a dit (2009).
-Julia Wauters collabore régulièrement comme illustratrice pour l’édition jeunesse aux côtés des éditions Syros, Sarbacane, Actes Sud, Albin Michel ou Flammarion, tout comme pour la publicité et la communication événementielle, représentée via l’agence Costume 3 pièces[4],[5],[6].
-Elle travaille à Nantes depuis 2008, où elle a créé l'atelier de sérigraphie Radar où travaillent également la céramiste Yoko Homareda[7] et l'illustratrice Caroline Dall'Ava[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après des cours d'art textile à l'École Duperré à Paris, Julia Wauters est diplômée de l’atelier d’illustration des Arts décoratifs de Strasbourg, où elle a participé à la création du collectif Troglodyte. Elle est à l'origine avec le dessinateur Glen Chapron du fanzine Écarquillettes.
+Peu après son diplôme, elle rencontre Sophie Giraud, éditrice aux Éditions Albin Michel et Naïve, et fondatrice en 2008 des éditions Hélium. Elle y illustre un de ses premiers albums, Ma grande sœur m'a dit (2009).
+Julia Wauters collabore régulièrement comme illustratrice pour l’édition jeunesse aux côtés des éditions Syros, Sarbacane, Actes Sud, Albin Michel ou Flammarion, tout comme pour la publicité et la communication événementielle, représentée via l’agence Costume 3 pièces.
+Elle travaille à Nantes depuis 2008, où elle a créé l'atelier de sérigraphie Radar où travaillent également la céramiste Yoko Homareda et l'illustratrice Caroline Dall'Ava.
 </t>
         </is>
       </c>
@@ -547,12 +561,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>En tant qu'auteure-illustratrice
-2009 : L'arbre des saisons, Hélium
+          <t>En tant qu'auteure-illustratrice</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2009 : L'arbre des saisons, Hélium
 2011 : Une nuit loin d'ici, Hélium
-2012 : Ma petite savane, Milan
-En tant qu'illustratrice
-2008 : Les histoires du Petit Chaperon rouge racontées dans le monde, textes de Gilles Bizouerne et Fabienne Morel, Syros
+2012 : Ma petite savane, Milan</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Julia_Wauters</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Julia_Wauters</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En tant qu'illustratrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2008 : Les histoires du Petit Chaperon rouge racontées dans le monde, textes de Gilles Bizouerne et Fabienne Morel, Syros
 2008 : Lili la bagarre, texte de Rachel Corenblit, Éditions du Rouergue
 2009 : Ma grande sœur m'a dit, texte de Gilberte Niamh Bourget, Hélium
 2009 : Matakonda la Terrible, texte d'Anne Vantal, Actes Sud
@@ -574,9 +627,43 @@
 2015 : Pierre et le Loup, suivi du Canard est toujours vivant, texte de Bernard Friot, Milan
 2015 : Fables – Quand la sagesse vint aux ânes, texte de Pierre Ruaud, Amaterra
 2017 : Au fond des bois, texte d'Anne Cortey, Sarbacane
-2017 : Mille méduses, texte de Gwenaël David, Hélium
-Bande dessinée
-2009 : Vents dominants, dessin de Glen Chapron, Éditions Sarbacane</t>
+2017 : Mille méduses, texte de Gwenaël David, Hélium</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Julia_Wauters</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Julia_Wauters</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2009 : Vents dominants, dessin de Glen Chapron, Éditions Sarbacane</t>
         </is>
       </c>
     </row>
